--- a/static/xlsx/Require_data.xlsx
+++ b/static/xlsx/Require_data.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -519,6 +519,63 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
+          <t>1.	上软下硬地层对刀盘冲击大；
+2.	上软下硬地层盾构姿态不易控制；
+3.	上软下硬地层易引起地表沉降；
+4.	粘土防止刀盘结泥饼；
+5.	丰富的基岩裂隙水防止喷涌；
+6.	复合地层掌子面不易稳定。</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>1.	确认配置冷冻刀盘，切刀2个连续磨损检测，刮刀2个连续磨损检测；
+2.	确认盾构机为主动铰接；
+3.	确认采用中心支撑形式；
+4.	确认配置环保厕所；
+5.	建议核实冷冻机组尺寸和能力；</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>中铁十二局集团有限公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>土压平衡盾构机</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ZTE8800</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2014-05-18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>广州18/22号线项目部</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>本段区间主要沿番禺大道布置，先后穿越广明高速、兴业大道，在汉溪大道东路口处至南村万博站。设计范围为盾构及矿山法段隧道，设计起讫里程YCK41+045.666～ YCK43+756.100，线路长度2710.434m。其中盾构区间线路长2400.562m，其余采用矿山法施工。该段区间共设置5个联络通道，1个暗挖竖井，其中联络通道采用矿山法施工，竖井采用明挖法施工</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
           <t>1.	上软下硬地层对刀盘冲击大；
 2.	上软下硬地层盾构姿态不易控制；
 3.	上软下硬地层易引起地表沉降；
@@ -527,7 +584,7 @@
 6.	复合地层掌子面不易稳定。</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>1.	确认配置冷冻刀盘，切刀2个连续磨损检测，刮刀2个连续磨损检测；
 2.	确认盾构机为主动铰接；
@@ -536,49 +593,49 @@
 5.	建议核实冷冻机组尺寸和能力；</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>DZ495、DZ496设计任务书（1m螺旋机）.doc</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>中铁十二局集团有限公司</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>土压平衡盾构机</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>ZTE8800</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2018-05-18</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>广州18/22号线项目部</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>本段区间主要沿番禺大道布置，先后穿越广明高速、兴业大道，在汉溪大道东路口处至南村万博站。设计范围为盾构及矿山法段隧道，设计起讫里程YCK41+045.666～ YCK43+756.100，线路长度2710.434m。其中盾构区间线路长2400.562m，其余采用矿山法施工。该段区间共设置5个联络通道，1个暗挖竖井，其中联络通道采用矿山法施工，竖井采用明挖法施工</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1.	上软下硬地层对刀盘冲击大；
 2.	上软下硬地层盾构姿态不易控制；
@@ -588,7 +645,7 @@
 6.	复合地层掌子面不易稳定。</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>1.	确认配置冷冻刀盘，切刀2个连续磨损检测，刮刀2个连续磨损检测；
 2.	确认盾构机为主动铰接；
@@ -597,67 +654,6 @@
 5.	建议核实冷冻机组尺寸和能力；</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>DZ495、DZ496设计任务书（1m螺旋机）.doc</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>中铁十二局集团有限公司</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>土压平衡盾构机</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ZTE8800</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2018-05-18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>广州18/22号线项目部</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>本段区间主要沿番禺大道布置，先后穿越广明高速、兴业大道，在汉溪大道东路口处至南村万博站。设计范围为盾构及矿山法段隧道，设计起讫里程YCK41+045.666～ YCK43+756.100，线路长度2710.434m。其中盾构区间线路长2400.562m，其余采用矿山法施工。该段区间共设置5个联络通道，1个暗挖竖井，其中联络通道采用矿山法施工，竖井采用明挖法施工</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1.	上软下硬地层对刀盘冲击大；
-2.	上软下硬地层盾构姿态不易控制；
-3.	上软下硬地层易引起地表沉降；
-4.	粘土防止刀盘结泥饼；
-5.	丰富的基岩裂隙水防止喷涌；
-6.	复合地层掌子面不易稳定。</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1.	确认配置冷冻刀盘，切刀2个连续磨损检测，刮刀2个连续磨损检测；
-2.	确认盾构机为主动铰接；
-3.	确认采用中心支撑形式；
-4.	确认配置环保厕所；
-5.	建议核实冷冻机组尺寸和能力；</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>DZ495、DZ496设计任务书（1m螺旋机）.doc</t>
@@ -672,17 +668,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>weq</t>
+          <t>中铁十一局集团有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>请问</t>
+          <t>普通盾构机</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>请问</t>
+          <t>ZTE7700</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,24 +688,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>请问额</t>
+          <t>北京昌平线东延项目部</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> qw顶顶顶顶顶顶顶顶顶顶顶顶顶</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>qw</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>qw</t>
-        </is>
-      </c>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -718,11 +706,31 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>中铁十一局集团有限公司</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>快速盾构机</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ZTE6600</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2021-07-04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>南京2号线项目部</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -734,16 +742,304 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>北京海力士科技有限公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>土压平衡盾构机</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ZTE8800</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2019-09-18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>北京3号线项目部</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>中铁十局集团科技有限公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>快速盾构机</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ZTE6600</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>北京2号线项目部</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>北京海力士科技有限公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>土压平衡盾构机</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ZTE8800</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2019-09-18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>北京3号线项目部</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>北京海力士科技有限公司</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平衡盾构机</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ZTE8800</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2019-09-08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>北京9号线项目部</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>北京海力士科技有限公司</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>土压平衡盾构机</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ZTE8700</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>北京3号线项目部</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>上海海帕科技有限公司</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>普通盾构机</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ZTE6500</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2017-12-18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>北京4号线项目部</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>上海海帕科技有限公司</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>普通盾构机</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ZTE6500</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2016-12-18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>北京4号线项目部</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>上海海帕科技有限公司</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>普通盾构机</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ZTE6500</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>北京4号线项目部</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
